--- a/03_java_array_advance/src/step3_02/arrayAdvance2/ArrayEx50_달팽이 그림.xlsx
+++ b/03_java_array_advance/src/step3_02/arrayAdvance2/ArrayEx50_달팽이 그림.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>오른쪽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,90 @@
   </si>
   <si>
     <t>위쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ij</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +375,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,34 +720,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="3.625" customWidth="1"/>
-    <col min="12" max="28" width="3.75" customWidth="1"/>
+    <col min="1" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="11" width="3.625" style="26" customWidth="1"/>
+    <col min="12" max="28" width="3.75" style="26" customWidth="1"/>
+    <col min="29" max="41" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
     </row>
     <row r="2" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2">
@@ -642,24 +770,24 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
+      <c r="J2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
     </row>
     <row r="3" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -683,24 +811,33 @@
       <c r="G3" s="13">
         <v>6</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="28">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
+      <c r="K3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -724,24 +861,33 @@
       <c r="G4" s="6">
         <v>7</v>
       </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="28">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
+      <c r="N4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -765,24 +911,33 @@
       <c r="G5" s="6">
         <v>8</v>
       </c>
-      <c r="J5" s="16">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="29">
+        <v>2</v>
+      </c>
+      <c r="K5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
+      <c r="N5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
     </row>
     <row r="6" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -806,19 +961,25 @@
       <c r="G6" s="6">
         <v>9</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
+      <c r="J6" s="29"/>
+      <c r="N6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
     </row>
     <row r="7" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -842,18 +1003,24 @@
       <c r="G7" s="6">
         <v>10</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
+      <c r="N7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
     </row>
     <row r="8" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -877,32 +1044,35 @@
       <c r="G8" s="9">
         <v>11</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
+      <c r="N8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10">
@@ -926,24 +1096,27 @@
       <c r="H10">
         <v>6</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
+      <c r="N10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -971,24 +1144,36 @@
         <v>7</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="10">
+      <c r="J11" s="28">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
+      <c r="N11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1016,24 +1201,36 @@
         <v>8</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="10">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" s="28">
+        <v>1</v>
+      </c>
+      <c r="K12" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
+      <c r="N12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
     </row>
     <row r="13" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1061,24 +1258,33 @@
         <v>9</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="10">
-        <v>2</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" s="28">
+        <v>2</v>
+      </c>
+      <c r="K13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
+      <c r="N13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
     </row>
     <row r="14" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1106,24 +1312,33 @@
         <v>10</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="10">
+      <c r="J14" s="28">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
+      <c r="N14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
     </row>
     <row r="15" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1151,18 +1366,24 @@
         <v>11</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
+      <c r="N15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
     </row>
     <row r="16" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1190,20 +1411,26 @@
         <v>12</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-    </row>
-    <row r="17" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+    </row>
+    <row r="17" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1229,20 +1456,23 @@
         <v>13</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-    </row>
-    <row r="18" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+    </row>
+    <row r="18" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1251,25 +1481,57 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-    </row>
-    <row r="19" spans="1:31" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+    </row>
+    <row r="19" spans="1:41" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+    </row>
+    <row r="20" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0</v>
       </c>
@@ -1288,29 +1550,29 @@
       <c r="G20">
         <v>5</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="26">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
+      <c r="M20" s="26">
+        <v>1</v>
+      </c>
+      <c r="N20" s="26">
+        <v>2</v>
+      </c>
+      <c r="O20" s="26">
         <v>3</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="26">
         <v>4</v>
       </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-      <c r="R20">
+      <c r="Q20" s="26">
+        <v>5</v>
+      </c>
+      <c r="R20" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1332,32 +1594,32 @@
       <c r="G21" s="13">
         <v>6</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="26">
         <v>0</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>2</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="L21" s="31">
+        <v>1</v>
+      </c>
+      <c r="M21" s="32">
+        <v>2</v>
+      </c>
+      <c r="N21" s="32">
         <v>3</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="32">
         <v>4</v>
       </c>
-      <c r="P21" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="P21" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="32">
         <v>6</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1379,32 +1641,32 @@
       <c r="G22" s="17">
         <v>7</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="K22" s="26">
+        <v>1</v>
+      </c>
+      <c r="L22" s="34">
         <v>24</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="27">
         <v>25</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="27">
         <v>26</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="27">
         <v>27</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="27">
         <v>28</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="35">
         <v>29</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="36">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1426,32 +1688,32 @@
       <c r="G23" s="17">
         <v>8</v>
       </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="K23" s="26">
+        <v>2</v>
+      </c>
+      <c r="L23" s="34">
         <v>23</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="28">
         <v>40</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="28">
         <v>41</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="28">
         <v>42</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="35">
         <v>43</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="35">
         <v>30</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1473,32 +1735,32 @@
       <c r="G24" s="17">
         <v>9</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="26">
         <v>3</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="34">
         <v>22</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="28">
         <v>39</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="28">
         <v>48</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="35">
         <v>49</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="35">
         <v>44</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="35">
         <v>31</v>
       </c>
-      <c r="R24" s="17">
+      <c r="R24" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1520,32 +1782,32 @@
       <c r="G25" s="17">
         <v>10</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="26">
         <v>4</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="34">
         <v>21</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="28">
         <v>38</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="28">
         <v>47</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="28">
         <v>46</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="35">
         <v>45</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="35">
         <v>32</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="36">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1567,58 +1829,58 @@
       <c r="G26" s="18">
         <v>11</v>
       </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="K26" s="26">
+        <v>5</v>
+      </c>
+      <c r="L26" s="34">
         <v>20</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="27">
         <v>37</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="27">
         <v>36</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="27">
         <v>35</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="27">
         <v>34</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="35">
         <v>33</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="36">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K27">
+    <row r="27" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="26">
         <v>6</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="37">
         <v>19</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="38">
         <v>18</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="38">
         <v>17</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="38">
         <v>16</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="38">
         <v>15</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="Q27" s="38">
         <v>14</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="39">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -1626,14 +1888,14 @@
         <v>10</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="L29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="L29" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0</v>
       </c>
@@ -1641,14 +1903,14 @@
         <v>6</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="L30">
+      <c r="L30" s="26">
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="26">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -1656,14 +1918,14 @@
         <v>4</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="26">
+        <v>1</v>
+      </c>
+      <c r="M31" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2</v>
       </c>
@@ -1671,19 +1933,51 @@
         <v>2</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
+      <c r="L32" s="26">
+        <v>2</v>
+      </c>
+      <c r="M32" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+      <c r="AO33" s="30"/>
+    </row>
+    <row r="34" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0</v>
       </c>
@@ -1702,14 +1996,14 @@
       <c r="G34">
         <v>5</v>
       </c>
-      <c r="J34" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="J34" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1731,14 +2025,14 @@
       <c r="G35" s="3">
         <v>6</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="26">
         <v>0</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1760,14 +2054,14 @@
       <c r="G36" s="6">
         <v>7</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="26">
+        <v>1</v>
+      </c>
+      <c r="K36" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1789,14 +2083,14 @@
       <c r="G37" s="6">
         <v>8</v>
       </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="26">
+        <v>2</v>
+      </c>
+      <c r="K37" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1819,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1842,7 +2136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1865,7 +2159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0</v>
       </c>
@@ -1887,14 +2181,14 @@
       <c r="H42">
         <v>6</v>
       </c>
-      <c r="J42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J42" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1920,14 +2214,14 @@
         <v>7</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43">
+      <c r="J43" s="26">
         <v>0</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="26">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1953,14 +2247,14 @@
         <v>8</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="26">
+        <v>1</v>
+      </c>
+      <c r="K44" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1986,14 +2280,14 @@
         <v>9</v>
       </c>
       <c r="I45" s="5"/>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
+      <c r="J45" s="26">
+        <v>2</v>
+      </c>
+      <c r="K45" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2020,7 +2314,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2047,7 +2341,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2074,7 +2368,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>6</v>
       </c>
@@ -2101,7 +2395,7 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:11" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -2110,13 +2404,77 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:11" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="29"/>
+      <c r="AL50" s="29"/>
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="29"/>
+      <c r="AO50" s="29"/>
+    </row>
+    <row r="51" spans="1:41" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="30"/>
+      <c r="AM51" s="30"/>
+      <c r="AN51" s="30"/>
+      <c r="AO51" s="30"/>
+    </row>
+    <row r="52" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0</v>
       </c>
@@ -2135,14 +2493,14 @@
       <c r="G52">
         <v>5</v>
       </c>
-      <c r="J52" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="J52" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2164,14 +2522,14 @@
       <c r="G53" s="3">
         <v>6</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="26">
         <v>0</v>
       </c>
-      <c r="K53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K53" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2193,14 +2551,14 @@
       <c r="G54" s="6">
         <v>7</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
+      <c r="J54" s="26">
+        <v>1</v>
+      </c>
+      <c r="K54" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2223,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2246,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2269,7 +2627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2292,7 +2650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:41" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>0</v>
       </c>
@@ -2314,14 +2672,14 @@
       <c r="H60">
         <v>6</v>
       </c>
-      <c r="J60" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="J60" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -2347,14 +2705,14 @@
         <v>7</v>
       </c>
       <c r="I61" s="5"/>
-      <c r="J61">
+      <c r="J61" s="26">
         <v>0</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2380,14 +2738,14 @@
         <v>8</v>
       </c>
       <c r="I62" s="5"/>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
+      <c r="J62" s="26">
+        <v>1</v>
+      </c>
+      <c r="K62" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2413,14 +2771,14 @@
         <v>9</v>
       </c>
       <c r="I63" s="5"/>
-      <c r="J63">
-        <v>2</v>
-      </c>
-      <c r="K63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="26">
+        <v>2</v>
+      </c>
+      <c r="K63" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
